--- a/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
@@ -118,6 +118,9 @@
   </x:si>
   <x:si>
     <x:t>12.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -616,7 +619,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
         <x:v>30</x:v>
@@ -647,7 +650,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>30</x:v>
@@ -678,7 +681,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>30</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
@@ -121,6 +121,9 @@
   </x:si>
   <x:si>
     <x:t>15.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -619,7 +622,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
         <x:v>30</x:v>
@@ -650,7 +653,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>30</x:v>
@@ -681,7 +684,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>30</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
@@ -124,6 +124,9 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -622,7 +625,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
         <x:v>30</x:v>
@@ -653,7 +656,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>30</x:v>
@@ -684,7 +687,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>30</x:v>

--- a/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
+++ b/src/Tests/bin/Debug/net6.0/Templates/Contacts.xlsx
@@ -124,9 +124,6 @@
   </x:si>
   <x:si>
     <x:t>17.05.2023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03.08.2023</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -625,7 +622,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
         <x:v>30</x:v>
@@ -656,7 +653,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L3" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M3" s="2" t="s">
         <x:v>30</x:v>
@@ -687,7 +684,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
         <x:v>30</x:v>
